--- a/input/2^4_4^1.xlsx
+++ b/input/2^4_4^1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SoftwareTestUtil\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01A2FB7-AD00-45C0-BAB4-7A96050EDA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C4B957-3A6B-46C2-8980-1189A6967C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +109,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -135,8 +151,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,7 +438,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="355" zoomScaleNormal="355" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -429,68 +447,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>